--- a/biology/Zoologie/Conchostraca/Conchostraca.xlsx
+++ b/biology/Zoologie/Conchostraca/Conchostraca.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Conchostracés (en latin Conchostraca, mot composé à partir de concha - coquillage - signifiant crustacé en forme de conques, du fait de leur ressemblance avec les bivalves, ou Conchostraca Sars, 1867) forment un taxon obsolète de crustacés branchiopodes, classé originellement au rang d'ordre. Il a ensuite été démontré que le taxon était paraphylétique et a donc été séparé en trois différents ordres: Cyclestherida, Laevicaudata et Spinicaudata.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1909, dans Treatise on Zoology de Sir Edwin Ray Lankester (1847-1929), William Thomas Calman (1871-1952), zoologiste écossais, subdivise les Branchiopoda en quatre ordres : Anostraca, Notostraca, Conchostraca et Cladocera. 
 </t>
